--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_Vinaphone.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang3/02.XuLyBH/XLBH2103_Vinaphone.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2021\Thang3\02.XuLyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065"/>
+    <workbookView xWindow="-15" yWindow="4035" windowWidth="10320" windowHeight="4065" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TG102LE" sheetId="24" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="73">
   <si>
     <t>STT</t>
   </si>
@@ -446,7 +446,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -601,15 +601,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,21 +641,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -952,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showZeros="0" topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -985,43 +982,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -1066,58 +1063,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="60" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="54" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="54" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="58" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="54" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="54" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -1142,23 +1139,23 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="54"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="58"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1212,7 +1209,7 @@
       </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="53" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -1243,7 +1240,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="54"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -1272,7 +1269,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="54"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -1301,7 +1298,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="54"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -1330,7 +1327,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="54"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -1359,7 +1356,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="54"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -1388,7 +1385,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="53" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -1419,7 +1416,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="54"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -1448,7 +1445,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="54"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -1477,7 +1474,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="54"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1506,7 +1503,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="55"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -2737,13 +2734,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -2755,6 +2745,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2765,8 +2762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView showZeros="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29:M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2798,43 +2795,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
-      <c r="V1" s="55"/>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59"/>
+      <c r="V1" s="59"/>
       <c r="W1" s="48"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58" t="s">
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="58"/>
+      <c r="F2" s="62"/>
       <c r="G2" s="5"/>
       <c r="H2" s="21"/>
       <c r="I2" s="21"/>
@@ -2879,58 +2876,58 @@
       <c r="W3" s="27"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="54" t="s">
+      <c r="A4" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54" t="s">
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="54" t="s">
+      <c r="K4" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="54"/>
-      <c r="M4" s="60" t="s">
+      <c r="L4" s="57"/>
+      <c r="M4" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="60" t="s">
+      <c r="N4" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="54" t="s">
+      <c r="O4" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="65" t="s">
+      <c r="P4" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="54" t="s">
+      <c r="Q4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="54" t="s">
+      <c r="R4" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="66" t="s">
+      <c r="S4" s="58" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="27"/>
-      <c r="U4" s="54" t="s">
+      <c r="U4" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="54" t="s">
+      <c r="V4" s="57" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="63"/>
       <c r="B5" s="45" t="s">
         <v>1</v>
       </c>
@@ -2955,49 +2952,77 @@
       <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="54"/>
+      <c r="J5" s="57"/>
       <c r="K5" s="45" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="65"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="54"/>
-      <c r="S5" s="66"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="58"/>
       <c r="T5" s="27"/>
-      <c r="U5" s="54"/>
-      <c r="V5" s="54"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
       <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" s="12" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="52"/>
+      <c r="B6" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="37">
+        <v>44282</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="39">
+        <v>868183034770482</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="40" t="s">
+        <v>70</v>
+      </c>
       <c r="J6" s="40"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
+      <c r="K6" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="40" t="s">
+        <v>62</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="38"/>
+      <c r="O6" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="P6" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="R6" s="38" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="4"/>
       <c r="T6" s="44"/>
-      <c r="U6" s="62" t="s">
+      <c r="U6" s="53" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="4" t="s">
@@ -3016,7 +3041,7 @@
       <c r="F7" s="51"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
-      <c r="I7" s="53"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="40"/>
       <c r="K7" s="1"/>
       <c r="L7" s="40"/>
@@ -3028,7 +3053,7 @@
       <c r="R7" s="38"/>
       <c r="S7" s="4"/>
       <c r="T7" s="44"/>
-      <c r="U7" s="63"/>
+      <c r="U7" s="54"/>
       <c r="V7" s="4" t="s">
         <v>35</v>
       </c>
@@ -3045,7 +3070,7 @@
       <c r="F8" s="51"/>
       <c r="G8" s="38"/>
       <c r="H8" s="38"/>
-      <c r="I8" s="53"/>
+      <c r="I8" s="52"/>
       <c r="J8" s="40"/>
       <c r="K8" s="41"/>
       <c r="L8" s="40"/>
@@ -3057,7 +3082,7 @@
       <c r="R8" s="38"/>
       <c r="S8" s="4"/>
       <c r="T8" s="44"/>
-      <c r="U8" s="63"/>
+      <c r="U8" s="54"/>
       <c r="V8" s="4" t="s">
         <v>21</v>
       </c>
@@ -3074,7 +3099,7 @@
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="53"/>
+      <c r="I9" s="52"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
       <c r="L9" s="40"/>
@@ -3086,7 +3111,7 @@
       <c r="R9" s="38"/>
       <c r="S9" s="4"/>
       <c r="T9" s="44"/>
-      <c r="U9" s="63"/>
+      <c r="U9" s="54"/>
       <c r="V9" s="4" t="s">
         <v>51</v>
       </c>
@@ -3103,7 +3128,7 @@
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="53"/>
+      <c r="I10" s="52"/>
       <c r="J10" s="40"/>
       <c r="K10" s="1"/>
       <c r="L10" s="40"/>
@@ -3115,7 +3140,7 @@
       <c r="R10" s="38"/>
       <c r="S10" s="4"/>
       <c r="T10" s="44"/>
-      <c r="U10" s="63"/>
+      <c r="U10" s="54"/>
       <c r="V10" s="4" t="s">
         <v>31</v>
       </c>
@@ -3144,7 +3169,7 @@
       <c r="R11" s="38"/>
       <c r="S11" s="4"/>
       <c r="T11" s="44"/>
-      <c r="U11" s="63"/>
+      <c r="U11" s="54"/>
       <c r="V11" s="4" t="s">
         <v>30</v>
       </c>
@@ -3173,7 +3198,7 @@
       <c r="R12" s="38"/>
       <c r="S12" s="4"/>
       <c r="T12" s="44"/>
-      <c r="U12" s="62" t="s">
+      <c r="U12" s="53" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="4" t="s">
@@ -3204,7 +3229,7 @@
       <c r="R13" s="10"/>
       <c r="S13" s="4"/>
       <c r="T13" s="44"/>
-      <c r="U13" s="63"/>
+      <c r="U13" s="54"/>
       <c r="V13" s="4" t="s">
         <v>37</v>
       </c>
@@ -3233,7 +3258,7 @@
       <c r="R14" s="38"/>
       <c r="S14" s="4"/>
       <c r="T14" s="44"/>
-      <c r="U14" s="63"/>
+      <c r="U14" s="54"/>
       <c r="V14" s="4" t="s">
         <v>36</v>
       </c>
@@ -3262,7 +3287,7 @@
       <c r="R15" s="38"/>
       <c r="S15" s="4"/>
       <c r="T15" s="14"/>
-      <c r="U15" s="63"/>
+      <c r="U15" s="54"/>
       <c r="V15" s="4" t="s">
         <v>24</v>
       </c>
@@ -3291,7 +3316,7 @@
       <c r="R16" s="38"/>
       <c r="S16" s="4"/>
       <c r="T16" s="14"/>
-      <c r="U16" s="64"/>
+      <c r="U16" s="55"/>
       <c r="V16" s="4" t="s">
         <v>25</v>
       </c>
@@ -3410,7 +3435,7 @@
       </c>
       <c r="V20" s="10">
         <f>COUNTIF($Q$6:$Q$51,"PM")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20" s="14"/>
     </row>
@@ -3879,7 +3904,7 @@
       </c>
       <c r="V35" s="10">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35" s="14"/>
     </row>
@@ -3943,7 +3968,7 @@
       </c>
       <c r="V37" s="10">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37" s="14"/>
     </row>
@@ -4522,13 +4547,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -4540,6 +4558,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
